--- a/Cristian_processing/Pruebas_2904/Libro1.xlsx
+++ b/Cristian_processing/Pruebas_2904/Libro1.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Cristian-PC\Documents\Repositorios\Proyecto_Final_Tunel\Cristian_processing\Pruebas_2904\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25BF58E3-2117-464C-9537-13D1D4E6AD25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5F0D2B-F23E-46D4-A8B0-19EEE3D2A72A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="840" windowWidth="18000" windowHeight="9810" xr2:uid="{CF55AA50-8081-485E-860C-3B034C0A91DA}"/>
+    <workbookView xWindow="5700" yWindow="840" windowWidth="18000" windowHeight="9810" activeTab="1" xr2:uid="{CF55AA50-8081-485E-860C-3B034C0A91DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Polo Simple" sheetId="1" r:id="rId1"/>
+    <sheet name="Straje" sheetId="2" r:id="rId2"/>
+    <sheet name="2do orden" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Obtencion de datos platna</t>
   </si>
@@ -70,6 +72,36 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>DeltaY</t>
+  </si>
+  <si>
+    <t>Umax</t>
+  </si>
+  <si>
+    <t>Umin</t>
+  </si>
+  <si>
+    <t>DeltaU</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>Tu</t>
+  </si>
+  <si>
+    <t>Ta/Tu</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>ypicomax</t>
+  </si>
+  <si>
+    <t>delta</t>
   </si>
 </sst>
 </file>
@@ -423,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8E23C3-F9A5-4CC2-BA93-7498CDA6D7D9}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -566,4 +598,213 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C5C50-358D-44D0-8BBE-FCDCD56A4028}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>7.8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <f>B1-B2</f>
+        <v>1.5999999999999996</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>6.2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>314</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <f>B4-B5</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <f>E1/E4</f>
+        <v>1.3223140495867765E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <f>H2/H1</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <f>H1/4.46</f>
+        <v>0.44843049327354262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f>H2/1.42</f>
+        <v>0.49295774647887325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D0BC6-F3F1-4847-843C-0B331DA7BFF4}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>7.8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <f>B1-B2</f>
+        <v>1.5999999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>314</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <f>B4-B5</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <f>E1/E4</f>
+        <v>1.3223140495867765E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <f>(B3-B1)/B1</f>
+        <v>2.3076923076923155E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>LN(E12)</f>
+        <v>-3.7689221617874695</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>